--- a/asgsdatatables20162021.xlsx
+++ b/asgsdatatables20162021.xlsx
@@ -4096,640 +4096,6 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{979C001E-D197-4EB5-B07F-447AA4A6691F}"/>
   </cellStyles>
   <dxfs count="111">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -5495,6 +4861,640 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -5845,121 +5845,121 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A7:S22" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91" headerRowCellStyle="Heading 2">
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Industry" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="2016 Total turnover" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2017 Total turnover" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2018 Total turnover" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="2019 Total turnover" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="2020 Total turnover" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="2021 Total turnover" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2016 of which on-diagonal" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2017 of which on-diagonal" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2018 of which on-diagonal" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="2019 of which on-diagonal" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{C2CBB0C5-CD87-44C8-8DA8-F9533CB55AC8}" name="2020 of which on-diagonal" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{D24ABB44-6D5B-484A-842D-2D77CC0ADDB6}" name="2021 of which on-diagonal" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2016 of which off-diagonal" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2017 of which off-diagonal" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{20F061A1-F7AA-4C7D-BB40-B15C3100A0CC}" name="2018 of which off-diagonal" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{3D104B45-A963-4B0F-A9F1-A564B4844ADB}" name="2019 of which off-diagonal" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{FC88BBD6-B90B-4018-89F6-4D35598432C5}" name="2020 of which off-diagonal" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{DD47AF44-78F0-412E-AE6F-2A5803316575}" name="2021 of which off-diagonal" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Industry" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="2016 Total turnover" dataDxfId="89" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2017 Total turnover" dataDxfId="88" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="2018 Total turnover" dataDxfId="87" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="2019 Total turnover" dataDxfId="86" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="2020 Total turnover" dataDxfId="85" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="2021 Total turnover" dataDxfId="84" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2016 of which on-diagonal" dataDxfId="83" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2017 of which on-diagonal" dataDxfId="82" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="2018 of which on-diagonal" dataDxfId="81" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="2019 of which on-diagonal" dataDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{C2CBB0C5-CD87-44C8-8DA8-F9533CB55AC8}" name="2020 of which on-diagonal" dataDxfId="79" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{D24ABB44-6D5B-484A-842D-2D77CC0ADDB6}" name="2021 of which on-diagonal" dataDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2016 of which off-diagonal" dataDxfId="77" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2017 of which off-diagonal" dataDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{20F061A1-F7AA-4C7D-BB40-B15C3100A0CC}" name="2018 of which off-diagonal" dataDxfId="75" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{3D104B45-A963-4B0F-A9F1-A564B4844ADB}" name="2019 of which off-diagonal" dataDxfId="74" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{FC88BBD6-B90B-4018-89F6-4D35598432C5}" name="2020 of which off-diagonal" dataDxfId="73" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{DD47AF44-78F0-412E-AE6F-2A5803316575}" name="2021 of which off-diagonal" dataDxfId="72" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A7:P60" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A7:P60" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowCellStyle="Heading 2">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="2 digit CPA categories" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transport and storage services" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Accommodation and food services" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Information and communication services" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Financial and Insurance services" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Real estate services" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Professional, scientific and technical services" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Administrative and support services" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Education services" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Human health and social work services" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Other services" dataDxfId="74"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Total" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="2 digit CPA categories" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Transport and storage services" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Accommodation and food services" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Information and communication services" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Financial and Insurance services" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Real estate services" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Professional, scientific and technical services" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Administrative and support services" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Education services" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Human health and social work services" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="56"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Other services" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Total" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A7:P60" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A7:P60" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowCellStyle="Heading 2">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="2 digit CPA categories" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transport and storage services" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Accommodation and food services" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Information and communication services" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Financial and Insurance services" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Real estate services" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Professional, scientific and technical services" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Administrative and support services" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Education services" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Human health and social work services" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Other services" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Total" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="2 digit CPA categories" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Transport and storage services" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Accommodation and food services" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Information and communication services" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Financial and Insurance services" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Real estate services" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Professional, scientific and technical services" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Administrative and support services" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Education services" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Human health and social work services" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Other services" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Total" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A7:P60" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A7:P60" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Heading 2">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="2 digit CPA categories" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Transport and storage services" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Accommodation and food services" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Information and communication services" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Financial and Insurance services" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Real estate services" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Professional, scientific and technical services" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Administrative and support services" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Education services" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Human health and social work services" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Other services" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Total" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="2 digit CPA categories" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Transport and storage services" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Accommodation and food services" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Information and communication services" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Financial and Insurance services" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Real estate services" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Professional, scientific and technical services" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Administrative and support services" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Education services" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Human health and social work services" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Other services" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Total" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table10" displayName="Table10" ref="A7:P60" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table10" displayName="Table10" ref="A7:P60" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Heading 2">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="2 digit CPA categories" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Transport and storage services" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Accommodation and food services" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Information and communication services" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Financial and Insurance services" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Real estate services" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Professional, scientific and technical services" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Administrative and support services" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Education services" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Human health and social work services" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Other services" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Total" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="2 digit CPA categories" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Electricity, Gas, Steam and Air conditioning" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Water supply; Sewerage, Waste Management and Remediation services" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Wholesale and retail trade services; repair services of motor vehicles and motorcycles" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Transport and storage services" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Accommodation and food services" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Information and communication services" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Financial and Insurance services" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Real estate services" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Professional, scientific and technical services" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Administrative and support services" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Education services" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Human health and social work services" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Arts, entertainment and recreation services" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Other services" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -7489,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
